--- a/assets/sp_cetesb_infoaguas/excel/GADE02800.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/GADE02800.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,13 +480,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.24000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,18 +510,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.80000000</t>
+          <t>0.99000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -532,18 +536,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.10000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -584,18 +592,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31.10000000</t>
+          <t>20.10000000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -610,7 +618,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DQO (relativo a carbono)</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -620,7 +628,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -640,13 +648,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -692,17 +704,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>5.24000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -722,22 +730,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>31.10000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -782,18 +786,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.99000000</t>
+          <t>21.80000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -834,17 +838,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -864,17 +864,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -894,22 +890,18 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>16.70000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -924,18 +916,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>112.00000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -950,13 +946,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.06000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -976,18 +976,18 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>16.70000000</t>
+          <t>1.97000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1002,22 +1002,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>112.00000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1028,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DQO (relativo a carbono)</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1042,7 +1038,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1062,13 +1058,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1088,22 +1088,18 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>2.40000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1118,18 +1114,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.97000000</t>
+          <t>6.22000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1144,18 +1140,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.40000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Sólido Suspenso Total</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1200,18 +1200,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.22000000</t>
+          <t>8.06000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1252,17 +1252,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1282,18 +1278,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>8.47000000</t>
+          <t>4.68000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1304,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1318,7 +1314,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1338,7 +1334,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>DQO (relativo a carbono)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1348,7 +1344,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1368,13 +1364,13 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.89000000</t>
+          <t>8.47000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1394,18 +1390,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.84000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1450,17 +1450,13 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>3.89000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1480,18 +1476,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>43.20000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1506,18 +1502,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>168.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1532,22 +1532,18 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DQO (relativo a carbono)</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>168.00000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1562,18 +1558,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>43.20000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1588,18 +1588,18 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13.80000000</t>
+          <t>5.84000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1614,18 +1614,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4.68000000</t>
+          <t>13.80000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1640,17 +1640,13 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1670,18 +1666,18 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>20.60000000</t>
+          <t>1920.00000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1696,18 +1692,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>6.04000000</t>
+          <t>20.60000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1722,18 +1718,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1920.00000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1748,13 +1748,13 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.32000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1774,17 +1774,13 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DQO (relativo a carbono)</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.75000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1804,22 +1800,18 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>9.54000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1834,13 +1826,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1860,18 +1856,18 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>48.30000000</t>
+          <t>4.32000000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1886,18 +1882,18 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.75000000</t>
+          <t>48.30000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1934,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Sólido Suspenso Total</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1948,7 +1944,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1968,18 +1964,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>9.54000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1994,18 +1994,18 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>6.04000000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2020,13 +2020,13 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6.76000000</t>
+          <t>4.39000000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2046,13 +2046,13 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4.39000000</t>
+          <t>0.74000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2072,18 +2072,18 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>23.00000000</t>
+          <t>0.07000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2124,17 +2124,13 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>0.76000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2154,7 +2150,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
+          <t>Sólido Suspenso Total</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2164,7 +2160,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2184,17 +2180,13 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>6.76000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2214,18 +2206,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6.90000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2240,13 +2236,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.76000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2296,13 +2296,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.36000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2322,17 +2326,13 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.29000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2352,17 +2352,13 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Bário Total</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.57000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2382,13 +2378,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>6.15000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2438,13 +2438,13 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>6.80000000</t>
+          <t>0.36000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2464,22 +2464,18 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.56000000</t>
+          <t>2.80000000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2490,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2504,7 +2500,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2524,18 +2520,18 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>48.20000000</t>
+          <t>6.15000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2550,22 +2546,18 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>5.97000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2580,7 +2572,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
+          <t>Chumbo Total</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2590,7 +2582,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.00080000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2610,13 +2602,13 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.80000000</t>
+          <t>6.80000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2636,7 +2628,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DQO (relativo a carbono)</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2646,12 +2638,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.56000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2658,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
+          <t>Cobre Total</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2676,7 +2668,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2696,18 +2688,18 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1240.00000000</t>
+          <t>48.20000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2722,18 +2714,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4.01000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2748,13 +2744,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2.39000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -2774,13 +2774,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Dureza</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>10.00000000</t>
+          <t>0.00080000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2800,18 +2804,18 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.07000000</t>
+          <t>6.90000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2826,13 +2830,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.29000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -2852,18 +2860,18 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.57000000</t>
+          <t>23.00000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2878,17 +2886,13 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>10.00000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -2908,18 +2912,18 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5.97000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2934,7 +2938,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -2960,13 +2964,13 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.74000000</t>
+          <t>2.39000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -2986,22 +2990,18 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>4.01000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3016,22 +3016,18 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>1240.00000000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -3046,13 +3042,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3072,17 +3072,13 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DQO (relativo a carbono)</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>5.49000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3102,18 +3098,18 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>21.10000000</t>
+          <t>6.04000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -3128,17 +3124,13 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>6.23000000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3158,18 +3150,18 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>58.30000000</t>
+          <t>21.10000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3176,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>DQO (relativo a carbono)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3194,7 +3186,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3214,13 +3206,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3240,13 +3236,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>6.23000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3266,18 +3266,18 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>8.38000000</t>
+          <t>500.00000000</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Sólido Suspenso Total</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3322,13 +3322,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>5.49000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3374,18 +3378,18 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>500.00000000</t>
+          <t>8.38000000</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -3400,22 +3404,18 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>58.30000000</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -3430,16 +3430,1526 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>6.04000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>17.50000000</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>156.00000000</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>6.31000000</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>4.50000000</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>236.00000000</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.03000000</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0.51000000</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>41.10000000</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>7.51000000</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>44315.42361111111</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>7.12000000</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0.04000000</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>8.02000000</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>17.11000000</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>780.00000000</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>43.80000000</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>5.84000000</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0.50000000</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>5.83000000</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>44370.42708333334</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>15.70000000</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>53.60000000</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>3.60000000</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2.80000000</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>7.61000000</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>16.70000000</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>264.00000000</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0.52000000</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0.04000000</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>44432.45833333334</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>6.30000000</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>44496.45486111111</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0.50000000</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>44496.45486111111</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>44496.45486111111</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>6.46000000</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>44496.45486111111</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>44496.45486111111</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>46.30000000</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>44496.45486111111</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>4.00000000</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>44496.45486111111</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0.03000000</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>44496.45486111111</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>44496.45486111111</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>192.00000000</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>44496.45486111111</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>44496.45486111111</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>7.42000000</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>44496.45486111111</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>17.60000000</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>GADE02800</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>44496.45486111111</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>5.94000000</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
